--- a/district_stat.xlsx
+++ b/district_stat.xlsx
@@ -31,10 +31,10 @@
     <t xml:space="preserve">Завершение первой волны %</t>
   </si>
   <si>
-    <t xml:space="preserve">По плану от общего числа в округе %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Текущее от общего числа в округе %</t>
+    <t xml:space="preserve">По плану от общего числа в районе %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текущее от общего числа в районе %</t>
   </si>
   <si>
     <t xml:space="preserve">Опережение или отставание от плана %</t>
@@ -559,7 +559,7 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H123" activeCellId="0" sqref="H123"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
